--- a/pin mapping.xlsx
+++ b/pin mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\mwwhited-forks\CentronicsArduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB22EBB2-5A5A-42DE-93AE-DB89974714B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD7A78F-BF7F-4B13-B54E-17B23214EB0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B38896-96FC-4297-B367-18CE3B1AFD7C}"/>
+    <workbookView xWindow="48480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D3B38896-96FC-4297-B367-18CE3B1AFD7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="96">
   <si>
     <t>Mega</t>
   </si>
@@ -168,6 +168,170 @@
   </si>
   <si>
     <t>Signal Ground</t>
+  </si>
+  <si>
+    <t>SPP</t>
+  </si>
+  <si>
+    <t>EPP</t>
+  </si>
+  <si>
+    <t>ECP</t>
+  </si>
+  <si>
+    <t>Write</t>
+  </si>
+  <si>
+    <t>Host Clock</t>
+  </si>
+  <si>
+    <t>Usage of this line varies. Most printers will perform a line feed after each carriage return when
+this line is low, and carriage returns only when this line is high.</t>
+  </si>
+  <si>
+    <t>SPP Notes</t>
+  </si>
+  <si>
+    <t>Data is valid during an active low pulse on this line.</t>
+  </si>
+  <si>
+    <t>Unidirectional data lines. Data8 is the most significant.</t>
+  </si>
+  <si>
+    <t>EPP Notes</t>
+  </si>
+  <si>
+    <t>ECP Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This signal is low during a write operation and high during a read operation.	</t>
+  </si>
+  <si>
+    <t>This forward direction
+handshaking line is interlocked with PeriphAck and driven low when data is valid.</t>
+  </si>
+  <si>
+    <t>Bi-directional address and data lines. AD8 is the most significant.</t>
+  </si>
+  <si>
+    <t>Bi-directional address and data lines. Data8 is the most significant.</t>
+  </si>
+  <si>
+    <t>The peripheral pulses this line low when it has received the previous data and is ready to receive more data. The rising
+edge of ACK* can be enabled to interrupt the host.</t>
+  </si>
+  <si>
+    <t>The peripheral can enable this signal to interrupt the host on the low to high transition.</t>
+  </si>
+  <si>
+    <t>INTR</t>
+  </si>
+  <si>
+    <t>The peripheral drives this reverse direction handshaking line low to indicate that the data is valid. PeriphClk is interlocked with HostAck.</t>
+  </si>
+  <si>
+    <t>PeriphClk</t>
+  </si>
+  <si>
+    <t>Ack</t>
+  </si>
+  <si>
+    <t>The peripheral drives this signal high to indicate that it is not ready to receive data.</t>
+  </si>
+  <si>
+    <t>The peripheral drives this signal low to acknowledge that it has successfully completed the data or address transfer initiated by
+the host.</t>
+  </si>
+  <si>
+    <t>Wait</t>
+  </si>
+  <si>
+    <t>This forward direction handshaking line is interlocked with HostClk and driven by the peripheral to acknowledge data received from the host. During reverse direction transfers, the peripheral drives this line high during data transfers and low during command transfers.</t>
+  </si>
+  <si>
+    <t>PeriphAck</t>
+  </si>
+  <si>
+    <t>Usage of this line varies. Printers typically drive this signal high during a paper empty condition.</t>
+  </si>
+  <si>
+    <t>Perror</t>
+  </si>
+  <si>
+    <t>User Defined</t>
+  </si>
+  <si>
+    <t>Usage of this line varies.
+Peripherals usually drive this line low when an error condition exists.</t>
+  </si>
+  <si>
+    <t>The peripheral drives this signal high when it is selected and ready for data transfer.</t>
+  </si>
+  <si>
+    <t>The peripheral drives this line high to indicate that it uses ECP mode.</t>
+  </si>
+  <si>
+    <t>Xflap</t>
+  </si>
+  <si>
+    <t>The peripheral drives this signal low to request a reverse transfer. This line can be used to interrupt the host.</t>
+  </si>
+  <si>
+    <t>PeriphRequest</t>
+  </si>
+  <si>
+    <t>The peripheral drives this line to follow the level of the ReverseRequest* line.</t>
+  </si>
+  <si>
+    <t>Ack Reverse</t>
+  </si>
+  <si>
+    <t>In the forward direction, this line is driven low for a command transfer, and high for a data transfer. In the reverse direction, this signal is a handshaking line interlocked with PeriphClk.</t>
+  </si>
+  <si>
+    <t>Host Ack</t>
+  </si>
+  <si>
+    <t>This signal denotes data cycles. During a write operation, data is valid when this signal is active.
+During a read operation, this signal is low when the host is ready to receive data.</t>
+  </si>
+  <si>
+    <t>Dstrobe</t>
+  </si>
+  <si>
+    <t>AutoFD</t>
+  </si>
+  <si>
+    <t>The host drives this line low to select the peripheral.</t>
+  </si>
+  <si>
+    <t>Astrobe</t>
+  </si>
+  <si>
+    <t>This line denotes address cycles. When this signal is low, AD8-1 is an address.</t>
+  </si>
+  <si>
+    <t>The host drives this line high while in ECP mode, and low to terminate ECP mode.</t>
+  </si>
+  <si>
+    <t>1284 Active</t>
+  </si>
+  <si>
+    <t>init</t>
+  </si>
+  <si>
+    <t>This line is held low for a
+minimum of 50 µs to reset the printer and clear the print buffer.</t>
+  </si>
+  <si>
+    <t>This line is driven low to
+terminate EPP mode and return to SPP mode</t>
+  </si>
+  <si>
+    <t>This line is driven low to place the parallel port interface in the reverse direction.</t>
+  </si>
+  <si>
+    <t>Reverse Request</t>
   </si>
 </sst>
 </file>
@@ -222,15 +386,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -244,14 +421,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50E03B4B-4921-4BEB-A47D-73C34DB09CF3}" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
-  <autoFilter ref="A1:E26" xr:uid="{50E03B4B-4921-4BEB-A47D-73C34DB09CF3}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{50E03B4B-4921-4BEB-A47D-73C34DB09CF3}" name="Table1" displayName="Table1" ref="A1:K26" totalsRowShown="0">
+  <autoFilter ref="A1:K26" xr:uid="{50E03B4B-4921-4BEB-A47D-73C34DB09CF3}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{855AC43D-D2E5-4FF0-9DAE-8FDBE5F0D7D6}" name="Pin"/>
     <tableColumn id="2" xr3:uid="{C8619167-AA4A-415D-909B-444ABC6A4D19}" name="Name"/>
     <tableColumn id="3" xr3:uid="{453D7038-FD09-4682-8149-277CF42C8CC9}" name="Dir"/>
     <tableColumn id="4" xr3:uid="{F41D591F-EB93-41DF-9C32-7485A2A5BEB5}" name="Description"/>
     <tableColumn id="5" xr3:uid="{18B9BC26-599F-4ED1-A1B6-D857C5B4A383}" name="Mega"/>
+    <tableColumn id="6" xr3:uid="{A7B8282A-FA03-44D9-A4F2-22310B5EBC14}" name="SPP"/>
+    <tableColumn id="9" xr3:uid="{B7C28054-5AA3-477A-8BD7-85AC4EB0ECCB}" name="SPP Notes" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{10985E80-B424-4A23-9873-27602A096A34}" name="EPP"/>
+    <tableColumn id="10" xr3:uid="{354F8AC6-5526-46E6-9C56-DFC4D31F000D}" name="EPP Notes" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{A9DE5CEE-E21C-4F0A-8830-C26EA13C9532}" name="ECP"/>
+    <tableColumn id="11" xr3:uid="{93465E5F-E52F-4645-AD20-F06A3A209DB3}" name="ECP Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -554,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE52E273-E315-41CA-84EE-0AD50494218A}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -567,9 +750,13 @@
     <col min="3" max="3" width="5.53125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58" style="2" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.53125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -585,8 +772,26 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -602,8 +807,26 @@
       <c r="E2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -619,8 +842,26 @@
       <c r="E3">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -636,8 +877,17 @@
       <c r="E4">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -653,8 +903,17 @@
       <c r="E5">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -670,8 +929,17 @@
       <c r="E6">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -687,8 +955,17 @@
       <c r="E7">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -704,8 +981,17 @@
       <c r="E8">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -721,8 +1007,17 @@
       <c r="E9">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -738,8 +1033,17 @@
       <c r="E10" s="1">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -755,8 +1059,26 @@
       <c r="E11" s="1">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J11" t="s">
+        <v>63</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -772,8 +1094,26 @@
       <c r="E12" s="1">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -789,8 +1129,23 @@
       <c r="E13" s="1">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -806,8 +1161,20 @@
       <c r="E14" s="1">
         <v>47</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="G14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="57" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -823,8 +1190,26 @@
       <c r="E15">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -840,8 +1225,23 @@
       <c r="E16" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -857,8 +1257,26 @@
       <c r="E17">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -874,8 +1292,26 @@
       <c r="E18">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>87</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -892,7 +1328,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -909,7 +1345,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -926,7 +1362,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -943,7 +1379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -960,7 +1396,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -977,7 +1413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -994,7 +1430,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
